--- a/results/results_v3.xlsx
+++ b/results/results_v3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TM\Dropbox\DS\RNN-for-TS\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89F735F7-4EAD-4033-A6E8-CEC7B0B9297A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5349813B-CFCF-43CD-88CB-B3A3139A683B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9970" yWindow="200" windowWidth="19200" windowHeight="7860" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="340" yWindow="540" windowWidth="19200" windowHeight="7860" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="m4_hourly" sheetId="4" r:id="rId1"/>
@@ -6527,7 +6527,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="80" spans="1:16" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:16" s="38" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A80" s="59" t="s">
         <v>17</v>
       </c>
@@ -6615,7 +6615,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="82" spans="1:16" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:16" s="38" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A82" s="59" t="s">
         <v>17</v>
       </c>
@@ -6659,7 +6659,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="83" spans="1:16" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:16" s="38" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A83" s="59" t="s">
         <v>17</v>
       </c>
@@ -6703,7 +6703,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="84" spans="1:16" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:16" s="38" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A84" s="59" t="s">
         <v>17</v>
       </c>
@@ -6747,7 +6747,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="85" spans="1:16" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:16" s="38" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A85" s="59" t="s">
         <v>17</v>
       </c>
@@ -6791,7 +6791,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="86" spans="1:16" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:16" s="38" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A86" s="59" t="s">
         <v>17</v>
       </c>
@@ -9984,7 +9984,7 @@
       </c>
       <c r="P67" s="39"/>
     </row>
-    <row r="68" spans="1:16" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:16" s="38" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A68" s="38" t="s">
         <v>22</v>
       </c>
@@ -10034,7 +10034,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="69" spans="1:16" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:16" s="38" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A69" s="38" t="s">
         <v>22</v>
       </c>
@@ -10082,7 +10082,7 @@
       </c>
       <c r="P69" s="39"/>
     </row>
-    <row r="70" spans="1:16" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:16" s="38" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A70" s="38" t="s">
         <v>22</v>
       </c>
@@ -10132,7 +10132,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="71" spans="1:16" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:16" s="38" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A71" s="38" t="s">
         <v>22</v>
       </c>
@@ -10182,7 +10182,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="72" spans="1:16" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:16" s="38" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A72" s="38" t="s">
         <v>22</v>
       </c>
@@ -10232,7 +10232,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="73" spans="1:16" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:16" s="38" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A73" s="38" t="s">
         <v>22</v>
       </c>
@@ -10280,7 +10280,7 @@
       </c>
       <c r="P73" s="39"/>
     </row>
-    <row r="74" spans="1:16" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:16" s="38" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A74" s="38" t="s">
         <v>22</v>
       </c>
@@ -10330,7 +10330,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="75" spans="1:16" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:16" s="38" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A75" s="38" t="s">
         <v>22</v>
       </c>
@@ -10378,7 +10378,7 @@
       </c>
       <c r="P75" s="39"/>
     </row>
-    <row r="76" spans="1:16" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:16" s="38" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A76" s="38" t="s">
         <v>22</v>
       </c>
@@ -10428,7 +10428,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="77" spans="1:16" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:16" s="38" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A77" s="38" t="s">
         <v>22</v>
       </c>
@@ -10478,7 +10478,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="78" spans="1:16" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:16" s="38" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A78" s="38" t="s">
         <v>22</v>
       </c>
@@ -10528,7 +10528,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="79" spans="1:16" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:16" s="38" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A79" s="38" t="s">
         <v>22</v>
       </c>
@@ -10578,7 +10578,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="80" spans="1:16" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:16" s="38" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A80" s="38" t="s">
         <v>22</v>
       </c>
@@ -10628,7 +10628,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="81" spans="1:16" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:16" s="38" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A81" s="38" t="s">
         <v>22</v>
       </c>
@@ -10678,7 +10678,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="82" spans="1:16" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:16" s="38" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A82" s="38" t="s">
         <v>22</v>
       </c>
@@ -10768,7 +10768,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="84" spans="1:16" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:16" s="38" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A84" s="38" t="s">
         <v>22</v>
       </c>
@@ -10818,7 +10818,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="85" spans="1:16" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:16" s="38" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A85" s="38" t="s">
         <v>22</v>
       </c>
@@ -11566,11 +11566,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F380316F-4817-4EA0-A0F4-1C2E6B415461}">
-  <dimension ref="A1:O46"/>
+  <dimension ref="A1:O56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C48" sqref="C48"/>
+      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13003,137 +13003,281 @@
     <row r="42" spans="1:15" s="50" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C42" s="51"/>
       <c r="D42" s="51"/>
+      <c r="E42" s="51"/>
       <c r="F42" s="51"/>
       <c r="G42" s="51"/>
       <c r="H42" s="51"/>
       <c r="I42" s="51"/>
-      <c r="J42" s="51"/>
-      <c r="M42" s="51"/>
-      <c r="N42" s="51"/>
+      <c r="J42" s="52"/>
+      <c r="K42" s="53"/>
+      <c r="L42" s="53"/>
+      <c r="M42" s="52"/>
+      <c r="N42" s="52"/>
       <c r="O42" s="51"/>
     </row>
-    <row r="43" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
-      <c r="J43" s="3"/>
-      <c r="M43" s="3"/>
-      <c r="N43" s="3"/>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="6" t="s">
+    <row r="43" spans="1:15" s="50" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C43" s="51"/>
+      <c r="D43" s="51"/>
+      <c r="E43" s="51"/>
+      <c r="F43" s="51"/>
+      <c r="G43" s="51"/>
+      <c r="H43" s="51"/>
+      <c r="I43" s="51"/>
+      <c r="J43" s="52"/>
+      <c r="K43" s="53"/>
+      <c r="L43" s="53"/>
+      <c r="M43" s="52"/>
+      <c r="N43" s="52"/>
+      <c r="O43" s="51"/>
+    </row>
+    <row r="44" spans="1:15" s="50" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C44" s="51"/>
+      <c r="D44" s="51"/>
+      <c r="E44" s="51"/>
+      <c r="F44" s="51"/>
+      <c r="G44" s="51"/>
+      <c r="H44" s="51"/>
+      <c r="I44" s="51"/>
+      <c r="J44" s="52"/>
+      <c r="K44" s="53"/>
+      <c r="L44" s="53"/>
+      <c r="M44" s="52"/>
+      <c r="N44" s="52"/>
+      <c r="O44" s="51"/>
+    </row>
+    <row r="45" spans="1:15" s="50" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C45" s="51"/>
+      <c r="D45" s="51"/>
+      <c r="E45" s="51"/>
+      <c r="F45" s="51"/>
+      <c r="G45" s="51"/>
+      <c r="H45" s="51"/>
+      <c r="I45" s="51"/>
+      <c r="J45" s="52"/>
+      <c r="K45" s="53"/>
+      <c r="L45" s="53"/>
+      <c r="M45" s="52"/>
+      <c r="N45" s="52"/>
+      <c r="O45" s="51"/>
+    </row>
+    <row r="46" spans="1:15" s="50" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C46" s="51"/>
+      <c r="D46" s="51"/>
+      <c r="E46" s="51"/>
+      <c r="F46" s="51"/>
+      <c r="G46" s="51"/>
+      <c r="H46" s="51"/>
+      <c r="I46" s="51"/>
+      <c r="J46" s="52"/>
+      <c r="K46" s="53"/>
+      <c r="L46" s="53"/>
+      <c r="M46" s="52"/>
+      <c r="N46" s="52"/>
+      <c r="O46" s="51"/>
+    </row>
+    <row r="47" spans="1:15" s="50" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C47" s="51"/>
+      <c r="D47" s="51"/>
+      <c r="E47" s="51"/>
+      <c r="F47" s="51"/>
+      <c r="G47" s="51"/>
+      <c r="H47" s="51"/>
+      <c r="I47" s="51"/>
+      <c r="J47" s="52"/>
+      <c r="K47" s="53"/>
+      <c r="L47" s="53"/>
+      <c r="M47" s="52"/>
+      <c r="N47" s="52"/>
+      <c r="O47" s="51"/>
+    </row>
+    <row r="48" spans="1:15" s="50" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C48" s="51"/>
+      <c r="D48" s="51"/>
+      <c r="E48" s="51"/>
+      <c r="F48" s="51"/>
+      <c r="G48" s="51"/>
+      <c r="H48" s="51"/>
+      <c r="I48" s="51"/>
+      <c r="J48" s="52"/>
+      <c r="K48" s="53"/>
+      <c r="L48" s="53"/>
+      <c r="M48" s="52"/>
+      <c r="N48" s="52"/>
+      <c r="O48" s="51"/>
+    </row>
+    <row r="49" spans="1:15" s="50" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C49" s="51"/>
+      <c r="D49" s="51"/>
+      <c r="E49" s="51"/>
+      <c r="F49" s="51"/>
+      <c r="G49" s="51"/>
+      <c r="H49" s="51"/>
+      <c r="I49" s="51"/>
+      <c r="J49" s="52"/>
+      <c r="K49" s="53"/>
+      <c r="L49" s="53"/>
+      <c r="M49" s="52"/>
+      <c r="N49" s="52"/>
+      <c r="O49" s="51"/>
+    </row>
+    <row r="50" spans="1:15" s="50" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C50" s="51"/>
+      <c r="D50" s="51"/>
+      <c r="F50" s="51"/>
+      <c r="G50" s="51"/>
+      <c r="H50" s="51"/>
+      <c r="I50" s="51"/>
+      <c r="J50" s="51"/>
+      <c r="M50" s="51"/>
+      <c r="N50" s="51"/>
+      <c r="O50" s="51"/>
+    </row>
+    <row r="51" spans="1:15" s="50" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C51" s="51"/>
+      <c r="D51" s="51"/>
+      <c r="F51" s="51"/>
+      <c r="G51" s="51"/>
+      <c r="H51" s="51"/>
+      <c r="I51" s="51"/>
+      <c r="J51" s="51"/>
+      <c r="M51" s="51"/>
+      <c r="N51" s="51"/>
+      <c r="O51" s="51"/>
+    </row>
+    <row r="52" spans="1:15" s="50" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C52" s="51"/>
+      <c r="D52" s="51"/>
+      <c r="F52" s="51"/>
+      <c r="G52" s="51"/>
+      <c r="H52" s="51"/>
+      <c r="I52" s="51"/>
+      <c r="J52" s="51"/>
+      <c r="M52" s="51"/>
+      <c r="N52" s="51"/>
+      <c r="O52" s="51"/>
+    </row>
+    <row r="53" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
+      <c r="M53" s="3"/>
+      <c r="N53" s="3"/>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B44" s="6">
+      <c r="B54" s="6">
         <v>48000</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C54" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D44" s="7">
+      <c r="D54" s="7">
         <v>491056</v>
       </c>
-      <c r="E44" s="6">
-        <v>100</v>
-      </c>
-      <c r="F44" s="7">
-        <v>50</v>
-      </c>
-      <c r="G44" s="7" t="s">
+      <c r="E54" s="6">
+        <v>100</v>
+      </c>
+      <c r="F54" s="7">
+        <v>50</v>
+      </c>
+      <c r="G54" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H44" s="7"/>
-      <c r="I44" s="7">
+      <c r="H54" s="7"/>
+      <c r="I54" s="7">
         <v>42</v>
       </c>
-      <c r="J44" s="20">
+      <c r="J54" s="20">
         <v>119.488322681421</v>
       </c>
-      <c r="K44" s="21">
+      <c r="K54" s="21">
         <v>4772.3886078023397</v>
       </c>
-      <c r="L44" s="20">
+      <c r="L54" s="20">
         <v>1.4252456851917701</v>
       </c>
-      <c r="M44" s="21">
+      <c r="M54" s="21">
         <v>11.2135887871412</v>
       </c>
-      <c r="N44" s="20">
+      <c r="N54" s="20">
         <v>3.0093397413643199</v>
       </c>
-      <c r="O44" s="7"/>
-    </row>
-    <row r="45" spans="1:15" s="6" customFormat="1" ht="58" x14ac:dyDescent="0.35">
-      <c r="A45" s="6" t="s">
+      <c r="O54" s="7"/>
+    </row>
+    <row r="55" spans="1:15" s="6" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A55" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B45" s="6">
+      <c r="B55" s="6">
         <v>48000</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C55" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D45" s="7">
+      <c r="D55" s="7">
         <v>491056</v>
       </c>
-      <c r="E45" s="6">
-        <v>100</v>
-      </c>
-      <c r="F45" s="7">
-        <v>100</v>
-      </c>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
-      <c r="I45" s="7">
+      <c r="E55" s="6">
+        <v>100</v>
+      </c>
+      <c r="F55" s="7">
+        <v>100</v>
+      </c>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="7">
         <v>42</v>
       </c>
-      <c r="J45" s="20">
+      <c r="J55" s="20">
         <v>106.22708353048699</v>
       </c>
-      <c r="K45" s="21">
+      <c r="K55" s="21">
         <v>4241.8667773541902</v>
       </c>
-      <c r="L45" s="21">
+      <c r="L55" s="21">
         <v>1.47356738153907</v>
       </c>
-      <c r="M45" s="21">
+      <c r="M55" s="21">
         <v>9.4582211159614697</v>
       </c>
-      <c r="N45" s="21">
+      <c r="N55" s="21">
         <v>2.7352949638966999</v>
       </c>
-      <c r="O45" s="7" t="s">
+      <c r="O55" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="38" t="s">
+    <row r="56" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="B46" s="38">
+      <c r="B56" s="38">
         <v>48000</v>
       </c>
-      <c r="C46" s="39" t="s">
+      <c r="C56" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="D46" s="39">
+      <c r="D56" s="39">
         <v>491056</v>
       </c>
-      <c r="E46" s="38">
-        <v>100</v>
-      </c>
-      <c r="F46" s="39">
+      <c r="E56" s="38">
+        <v>100</v>
+      </c>
+      <c r="F56" s="39">
         <v>150</v>
       </c>
-      <c r="G46" s="39"/>
-      <c r="H46" s="39"/>
-      <c r="I46" s="39"/>
-      <c r="J46" s="39"/>
-      <c r="O46" s="39"/>
+      <c r="G56" s="39"/>
+      <c r="H56" s="39"/>
+      <c r="I56" s="39"/>
+      <c r="J56" s="39"/>
+      <c r="O56" s="39"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/results/results_v3.xlsx
+++ b/results/results_v3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TM\Dropbox\DS\RNN-for-TS\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5349813B-CFCF-43CD-88CB-B3A3139A683B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99D7907A-BE46-4C96-B942-A0E0C05BBA8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="340" yWindow="540" windowWidth="19200" windowHeight="7860" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="340" yWindow="540" windowWidth="19200" windowHeight="7860" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="m4_hourly" sheetId="4" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="201">
   <si>
     <t>Algorithm</t>
   </si>
@@ -621,6 +621,18 @@
   </si>
   <si>
     <t>wQL90</t>
+  </si>
+  <si>
+    <t>very jumpy/volatile training process</t>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
+    <t>best epoch (3)!!! Did not converge</t>
+  </si>
+  <si>
+    <t>no convergence</t>
   </si>
 </sst>
 </file>
@@ -11566,11 +11578,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F380316F-4817-4EA0-A0F4-1C2E6B415461}">
-  <dimension ref="A1:O56"/>
+  <dimension ref="A1:O69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C46" sqref="C46"/>
+      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11584,6 +11596,7 @@
     <col min="8" max="8" width="8.36328125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="4.90625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="37.36328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="10" customFormat="1" ht="29" x14ac:dyDescent="0.35">
@@ -13031,48 +13044,132 @@
       <c r="O43" s="51"/>
     </row>
     <row r="44" spans="1:15" s="50" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C44" s="51"/>
-      <c r="D44" s="51"/>
-      <c r="E44" s="51"/>
-      <c r="F44" s="51"/>
+      <c r="A44" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="B44" s="50">
+        <v>48000</v>
+      </c>
+      <c r="C44" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="51">
+        <v>973443</v>
+      </c>
+      <c r="E44" s="51">
+        <v>100</v>
+      </c>
+      <c r="F44" s="51">
+        <v>50</v>
+      </c>
       <c r="G44" s="51"/>
-      <c r="H44" s="51"/>
-      <c r="I44" s="51"/>
-      <c r="J44" s="52"/>
-      <c r="K44" s="53"/>
-      <c r="L44" s="53"/>
-      <c r="M44" s="52"/>
-      <c r="N44" s="52"/>
+      <c r="H44" s="51" t="s">
+        <v>198</v>
+      </c>
+      <c r="I44" s="51">
+        <v>42</v>
+      </c>
+      <c r="J44" s="52">
+        <v>1.2680859900000001</v>
+      </c>
+      <c r="K44" s="53">
+        <v>0.14616419999999999</v>
+      </c>
+      <c r="L44" s="53">
+        <v>28.51190369</v>
+      </c>
+      <c r="M44" s="52">
+        <v>0.13301716</v>
+      </c>
+      <c r="N44" s="52">
+        <v>9.5730200000000001E-2</v>
+      </c>
       <c r="O44" s="51"/>
     </row>
     <row r="45" spans="1:15" s="50" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C45" s="51"/>
-      <c r="D45" s="51"/>
-      <c r="E45" s="51"/>
-      <c r="F45" s="51"/>
+      <c r="A45" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="B45" s="50">
+        <v>48000</v>
+      </c>
+      <c r="C45" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="51">
+        <v>973443</v>
+      </c>
+      <c r="E45" s="51">
+        <v>100</v>
+      </c>
+      <c r="F45" s="51">
+        <v>50</v>
+      </c>
       <c r="G45" s="51"/>
-      <c r="H45" s="51"/>
-      <c r="I45" s="51"/>
-      <c r="J45" s="52"/>
-      <c r="K45" s="53"/>
-      <c r="L45" s="53"/>
-      <c r="M45" s="52"/>
-      <c r="N45" s="52"/>
+      <c r="H45" s="51" t="s">
+        <v>198</v>
+      </c>
+      <c r="I45" s="51">
+        <v>43</v>
+      </c>
+      <c r="J45" s="52">
+        <v>1.52685224</v>
+      </c>
+      <c r="K45" s="53">
+        <v>0.15848055999999999</v>
+      </c>
+      <c r="L45" s="53">
+        <v>37.920616240000001</v>
+      </c>
+      <c r="M45" s="52">
+        <v>0.14551027999999999</v>
+      </c>
+      <c r="N45" s="52">
+        <v>0.13911625</v>
+      </c>
       <c r="O45" s="51"/>
     </row>
     <row r="46" spans="1:15" s="50" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C46" s="51"/>
-      <c r="D46" s="51"/>
-      <c r="E46" s="51"/>
-      <c r="F46" s="51"/>
+      <c r="A46" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="B46" s="50">
+        <v>48000</v>
+      </c>
+      <c r="C46" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" s="51">
+        <v>973443</v>
+      </c>
+      <c r="E46" s="51">
+        <v>100</v>
+      </c>
+      <c r="F46" s="51">
+        <v>50</v>
+      </c>
       <c r="G46" s="51"/>
-      <c r="H46" s="51"/>
-      <c r="I46" s="51"/>
-      <c r="J46" s="52"/>
-      <c r="K46" s="53"/>
-      <c r="L46" s="53"/>
-      <c r="M46" s="52"/>
-      <c r="N46" s="52"/>
+      <c r="H46" s="51" t="s">
+        <v>198</v>
+      </c>
+      <c r="I46" s="51">
+        <v>44</v>
+      </c>
+      <c r="J46" s="52">
+        <v>1.1071093599999999</v>
+      </c>
+      <c r="K46" s="53">
+        <v>0.14006494</v>
+      </c>
+      <c r="L46" s="53">
+        <v>21.75778893</v>
+      </c>
+      <c r="M46" s="52">
+        <v>0.12587023999999999</v>
+      </c>
+      <c r="N46" s="52">
+        <v>9.5645179999999996E-2</v>
+      </c>
       <c r="O46" s="51"/>
     </row>
     <row r="47" spans="1:15" s="50" customFormat="1" x14ac:dyDescent="0.35">
@@ -13120,164 +13217,618 @@
       <c r="N49" s="52"/>
       <c r="O49" s="51"/>
     </row>
-    <row r="50" spans="1:15" s="50" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C50" s="51"/>
-      <c r="D50" s="51"/>
-      <c r="F50" s="51"/>
-      <c r="G50" s="51"/>
-      <c r="H50" s="51"/>
-      <c r="I50" s="51"/>
-      <c r="J50" s="51"/>
-      <c r="M50" s="51"/>
-      <c r="N50" s="51"/>
-      <c r="O50" s="51"/>
-    </row>
-    <row r="51" spans="1:15" s="50" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C51" s="51"/>
-      <c r="D51" s="51"/>
-      <c r="F51" s="51"/>
-      <c r="G51" s="51"/>
-      <c r="H51" s="51"/>
-      <c r="I51" s="51"/>
-      <c r="J51" s="51"/>
-      <c r="M51" s="51"/>
-      <c r="N51" s="51"/>
-      <c r="O51" s="51"/>
-    </row>
-    <row r="52" spans="1:15" s="50" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C52" s="51"/>
-      <c r="D52" s="51"/>
-      <c r="F52" s="51"/>
-      <c r="G52" s="51"/>
-      <c r="H52" s="51"/>
-      <c r="I52" s="51"/>
-      <c r="J52" s="51"/>
-      <c r="M52" s="51"/>
-      <c r="N52" s="51"/>
-      <c r="O52" s="51"/>
-    </row>
-    <row r="53" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
-      <c r="H53" s="3"/>
-      <c r="I53" s="3"/>
-      <c r="J53" s="3"/>
-      <c r="M53" s="3"/>
-      <c r="N53" s="3"/>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="6" t="s">
+    <row r="50" spans="1:15" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="B54" s="6">
+      <c r="B50" s="34">
         <v>48000</v>
       </c>
-      <c r="C54" s="7" t="s">
+      <c r="C50" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D50" s="35">
+        <v>973443</v>
+      </c>
+      <c r="E50" s="35">
+        <v>25</v>
+      </c>
+      <c r="F50" s="35">
+        <v>50</v>
+      </c>
+      <c r="G50" s="35"/>
+      <c r="H50" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="I50" s="35">
+        <v>42</v>
+      </c>
+      <c r="J50" s="36">
+        <v>1.04156665</v>
+      </c>
+      <c r="K50" s="37">
+        <v>0.14452783999999999</v>
+      </c>
+      <c r="L50" s="37">
+        <v>24.764567599999999</v>
+      </c>
+      <c r="M50" s="36">
+        <v>0.12876456</v>
+      </c>
+      <c r="N50" s="36">
+        <v>0.10455152</v>
+      </c>
+      <c r="O50" s="35"/>
+    </row>
+    <row r="51" spans="1:15" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="B51" s="34">
+        <v>48000</v>
+      </c>
+      <c r="C51" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D51" s="35">
+        <v>973443</v>
+      </c>
+      <c r="E51" s="35">
+        <v>25</v>
+      </c>
+      <c r="F51" s="35">
+        <v>50</v>
+      </c>
+      <c r="G51" s="35"/>
+      <c r="H51" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="I51" s="35">
+        <v>43</v>
+      </c>
+      <c r="J51" s="36">
+        <v>1.0535437400000001</v>
+      </c>
+      <c r="K51" s="37">
+        <v>0.14488442000000001</v>
+      </c>
+      <c r="L51" s="37">
+        <v>24.913253959999999</v>
+      </c>
+      <c r="M51" s="36">
+        <v>0.12907809000000001</v>
+      </c>
+      <c r="N51" s="36">
+        <v>0.1057289</v>
+      </c>
+      <c r="O51" s="35"/>
+    </row>
+    <row r="52" spans="1:15" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="B52" s="34">
+        <v>48000</v>
+      </c>
+      <c r="C52" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52" s="35">
+        <v>973443</v>
+      </c>
+      <c r="E52" s="35">
+        <v>25</v>
+      </c>
+      <c r="F52" s="35">
+        <v>50</v>
+      </c>
+      <c r="G52" s="35"/>
+      <c r="H52" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="I52" s="35">
+        <v>44</v>
+      </c>
+      <c r="J52" s="36">
+        <v>1.05478352</v>
+      </c>
+      <c r="K52" s="37">
+        <v>0.14471998999999999</v>
+      </c>
+      <c r="L52" s="37">
+        <v>24.905563879999999</v>
+      </c>
+      <c r="M52" s="36">
+        <v>0.12894147</v>
+      </c>
+      <c r="N52" s="36">
+        <v>0.10611864999999999</v>
+      </c>
+      <c r="O52" s="35"/>
+    </row>
+    <row r="53" spans="1:15" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C53" s="35"/>
+      <c r="D53" s="35"/>
+      <c r="E53" s="35"/>
+      <c r="F53" s="35"/>
+      <c r="G53" s="35"/>
+      <c r="H53" s="35"/>
+      <c r="I53" s="35"/>
+      <c r="J53" s="36"/>
+      <c r="K53" s="37"/>
+      <c r="L53" s="37"/>
+      <c r="M53" s="36"/>
+      <c r="N53" s="36"/>
+      <c r="O53" s="35"/>
+    </row>
+    <row r="54" spans="1:15" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="B54" s="34">
+        <v>48000</v>
+      </c>
+      <c r="C54" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D54" s="35">
+        <v>973443</v>
+      </c>
+      <c r="E54" s="35">
+        <v>50</v>
+      </c>
+      <c r="F54" s="35">
+        <v>50</v>
+      </c>
+      <c r="G54" s="35"/>
+      <c r="H54" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="I54" s="35">
+        <v>42</v>
+      </c>
+      <c r="J54" s="36">
+        <v>1.04156413</v>
+      </c>
+      <c r="K54" s="37">
+        <v>0.14452493999999999</v>
+      </c>
+      <c r="L54" s="37">
+        <v>24.762489720000001</v>
+      </c>
+      <c r="M54" s="36">
+        <v>0.12876255</v>
+      </c>
+      <c r="N54" s="36">
+        <v>0.104545676</v>
+      </c>
+      <c r="O54" s="35" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="B55" s="34">
+        <v>48000</v>
+      </c>
+      <c r="C55" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D55" s="35">
+        <v>973443</v>
+      </c>
+      <c r="E55" s="35">
+        <v>50</v>
+      </c>
+      <c r="F55" s="35">
+        <v>50</v>
+      </c>
+      <c r="G55" s="35"/>
+      <c r="H55" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="I55" s="35">
+        <v>43</v>
+      </c>
+      <c r="J55" s="36">
+        <v>1.0536072999999999</v>
+      </c>
+      <c r="K55" s="37">
+        <v>0.14488739</v>
+      </c>
+      <c r="L55" s="37">
+        <v>24.914646189999999</v>
+      </c>
+      <c r="M55" s="36">
+        <v>0.12907729000000001</v>
+      </c>
+      <c r="N55" s="36">
+        <v>0.10573324000000001</v>
+      </c>
+      <c r="O55" s="35"/>
+    </row>
+    <row r="56" spans="1:15" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="B56" s="34">
+        <v>48000</v>
+      </c>
+      <c r="C56" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D56" s="35">
+        <v>973443</v>
+      </c>
+      <c r="E56" s="35">
+        <v>50</v>
+      </c>
+      <c r="F56" s="35">
+        <v>50</v>
+      </c>
+      <c r="G56" s="35"/>
+      <c r="H56" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="I56" s="35">
+        <v>44</v>
+      </c>
+      <c r="J56" s="36">
+        <v>1.0546646399999999</v>
+      </c>
+      <c r="K56" s="37">
+        <v>0.14471840999999999</v>
+      </c>
+      <c r="L56" s="37">
+        <v>24.904696510000001</v>
+      </c>
+      <c r="M56" s="36">
+        <v>0.12894095999999999</v>
+      </c>
+      <c r="N56" s="36">
+        <v>0.10611795</v>
+      </c>
+      <c r="O56" s="35"/>
+    </row>
+    <row r="57" spans="1:15" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C57" s="35"/>
+      <c r="D57" s="35"/>
+      <c r="F57" s="35"/>
+      <c r="G57" s="35"/>
+      <c r="H57" s="35"/>
+      <c r="I57" s="35"/>
+      <c r="J57" s="35"/>
+      <c r="M57" s="35"/>
+      <c r="N57" s="35"/>
+      <c r="O57" s="35"/>
+    </row>
+    <row r="58" spans="1:15" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="B58" s="34">
+        <v>48000</v>
+      </c>
+      <c r="C58" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D58" s="35">
+        <v>973443</v>
+      </c>
+      <c r="E58" s="35">
+        <v>50</v>
+      </c>
+      <c r="F58" s="35">
+        <v>100</v>
+      </c>
+      <c r="G58" s="35"/>
+      <c r="H58" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="I58" s="35">
+        <v>42</v>
+      </c>
+      <c r="J58" s="36">
+        <v>1.04165039</v>
+      </c>
+      <c r="K58" s="37">
+        <v>0.1445273</v>
+      </c>
+      <c r="L58" s="37">
+        <v>24.763710540000002</v>
+      </c>
+      <c r="M58" s="36">
+        <v>0.12876552999999999</v>
+      </c>
+      <c r="N58" s="36">
+        <v>0.10454616</v>
+      </c>
+      <c r="O58" s="35"/>
+    </row>
+    <row r="59" spans="1:15" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="B59" s="34">
+        <v>48000</v>
+      </c>
+      <c r="C59" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D59" s="35">
+        <v>973443</v>
+      </c>
+      <c r="E59" s="35">
+        <v>50</v>
+      </c>
+      <c r="F59" s="35">
+        <v>100</v>
+      </c>
+      <c r="G59" s="35"/>
+      <c r="H59" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="I59" s="35">
+        <v>43</v>
+      </c>
+      <c r="J59" s="36">
+        <v>1.05356129</v>
+      </c>
+      <c r="K59" s="37">
+        <v>0.14488398</v>
+      </c>
+      <c r="L59" s="37">
+        <v>24.91417495</v>
+      </c>
+      <c r="M59" s="36">
+        <v>0.12907666000000001</v>
+      </c>
+      <c r="N59" s="36">
+        <v>0.10572911</v>
+      </c>
+      <c r="O59" s="35" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="B60" s="34">
+        <v>48000</v>
+      </c>
+      <c r="C60" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D60" s="35">
+        <v>973443</v>
+      </c>
+      <c r="E60" s="35">
+        <v>50</v>
+      </c>
+      <c r="F60" s="35">
+        <v>100</v>
+      </c>
+      <c r="G60" s="35"/>
+      <c r="H60" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="I60" s="35">
+        <v>44</v>
+      </c>
+      <c r="J60" s="36">
+        <v>1.0547572199999999</v>
+      </c>
+      <c r="K60" s="37">
+        <v>0.1447185</v>
+      </c>
+      <c r="L60" s="37">
+        <v>24.904147300000002</v>
+      </c>
+      <c r="M60" s="36">
+        <v>0.12893736</v>
+      </c>
+      <c r="N60" s="36">
+        <v>0.10611428000000001</v>
+      </c>
+      <c r="O60" s="35" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C61" s="35"/>
+      <c r="D61" s="35"/>
+      <c r="F61" s="35"/>
+      <c r="G61" s="35"/>
+      <c r="H61" s="35"/>
+      <c r="I61" s="35"/>
+      <c r="J61" s="36"/>
+      <c r="K61" s="37"/>
+      <c r="L61" s="37"/>
+      <c r="M61" s="36"/>
+      <c r="N61" s="36"/>
+      <c r="O61" s="35"/>
+    </row>
+    <row r="62" spans="1:15" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C62" s="35"/>
+      <c r="D62" s="35"/>
+      <c r="F62" s="35"/>
+      <c r="G62" s="35"/>
+      <c r="H62" s="35"/>
+      <c r="I62" s="35"/>
+      <c r="J62" s="36"/>
+      <c r="K62" s="37"/>
+      <c r="L62" s="37"/>
+      <c r="M62" s="36"/>
+      <c r="N62" s="36"/>
+      <c r="O62" s="35"/>
+    </row>
+    <row r="63" spans="1:15" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C63" s="35"/>
+      <c r="D63" s="35"/>
+      <c r="F63" s="35"/>
+      <c r="G63" s="35"/>
+      <c r="H63" s="35"/>
+      <c r="I63" s="35"/>
+      <c r="J63" s="36"/>
+      <c r="K63" s="37"/>
+      <c r="L63" s="37"/>
+      <c r="M63" s="36"/>
+      <c r="N63" s="36"/>
+      <c r="O63" s="35"/>
+    </row>
+    <row r="64" spans="1:15" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C64" s="35"/>
+      <c r="D64" s="35"/>
+      <c r="F64" s="35"/>
+      <c r="G64" s="35"/>
+      <c r="H64" s="35"/>
+      <c r="I64" s="35"/>
+      <c r="J64" s="36"/>
+      <c r="K64" s="37"/>
+      <c r="L64" s="37"/>
+      <c r="M64" s="36"/>
+      <c r="N64" s="36"/>
+      <c r="O64" s="35"/>
+    </row>
+    <row r="65" spans="1:15" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C65" s="35"/>
+      <c r="D65" s="35"/>
+      <c r="F65" s="35"/>
+      <c r="G65" s="35"/>
+      <c r="H65" s="35"/>
+      <c r="I65" s="35"/>
+      <c r="J65" s="36"/>
+      <c r="K65" s="37"/>
+      <c r="L65" s="37"/>
+      <c r="M65" s="36"/>
+      <c r="N65" s="36"/>
+      <c r="O65" s="35"/>
+    </row>
+    <row r="66" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="5"/>
+      <c r="I66" s="5"/>
+      <c r="J66" s="5"/>
+      <c r="M66" s="5"/>
+      <c r="N66" s="5"/>
+      <c r="O66" s="5"/>
+    </row>
+    <row r="67" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B67" s="6">
+        <v>48000</v>
+      </c>
+      <c r="C67" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D54" s="7">
+      <c r="D67" s="7">
         <v>491056</v>
       </c>
-      <c r="E54" s="6">
-        <v>100</v>
-      </c>
-      <c r="F54" s="7">
-        <v>50</v>
-      </c>
-      <c r="G54" s="7" t="s">
+      <c r="E67" s="6">
+        <v>100</v>
+      </c>
+      <c r="F67" s="7">
+        <v>50</v>
+      </c>
+      <c r="G67" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H54" s="7"/>
-      <c r="I54" s="7">
+      <c r="H67" s="7"/>
+      <c r="I67" s="7">
         <v>42</v>
       </c>
-      <c r="J54" s="20">
+      <c r="J67" s="20">
         <v>119.488322681421</v>
       </c>
-      <c r="K54" s="21">
+      <c r="K67" s="21">
         <v>4772.3886078023397</v>
       </c>
-      <c r="L54" s="20">
+      <c r="L67" s="20">
         <v>1.4252456851917701</v>
       </c>
-      <c r="M54" s="21">
+      <c r="M67" s="21">
         <v>11.2135887871412</v>
       </c>
-      <c r="N54" s="20">
+      <c r="N67" s="20">
         <v>3.0093397413643199</v>
       </c>
-      <c r="O54" s="7"/>
-    </row>
-    <row r="55" spans="1:15" s="6" customFormat="1" ht="58" x14ac:dyDescent="0.35">
-      <c r="A55" s="6" t="s">
+      <c r="O67" s="7"/>
+    </row>
+    <row r="68" spans="1:15" s="6" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A68" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B55" s="6">
+      <c r="B68" s="6">
         <v>48000</v>
       </c>
-      <c r="C55" s="7" t="s">
+      <c r="C68" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D55" s="7">
+      <c r="D68" s="7">
         <v>491056</v>
       </c>
-      <c r="E55" s="6">
-        <v>100</v>
-      </c>
-      <c r="F55" s="7">
-        <v>100</v>
-      </c>
-      <c r="G55" s="7"/>
-      <c r="H55" s="7"/>
-      <c r="I55" s="7">
+      <c r="E68" s="6">
+        <v>100</v>
+      </c>
+      <c r="F68" s="7">
+        <v>100</v>
+      </c>
+      <c r="G68" s="7"/>
+      <c r="H68" s="7"/>
+      <c r="I68" s="7">
         <v>42</v>
       </c>
-      <c r="J55" s="20">
+      <c r="J68" s="20">
         <v>106.22708353048699</v>
       </c>
-      <c r="K55" s="21">
+      <c r="K68" s="21">
         <v>4241.8667773541902</v>
       </c>
-      <c r="L55" s="21">
+      <c r="L68" s="21">
         <v>1.47356738153907</v>
       </c>
-      <c r="M55" s="21">
+      <c r="M68" s="21">
         <v>9.4582211159614697</v>
       </c>
-      <c r="N55" s="21">
+      <c r="N68" s="21">
         <v>2.7352949638966999</v>
       </c>
-      <c r="O55" s="7" t="s">
+      <c r="O68" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="56" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="38" t="s">
+    <row r="69" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="B56" s="38">
+      <c r="B69" s="38">
         <v>48000</v>
       </c>
-      <c r="C56" s="39" t="s">
+      <c r="C69" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="D56" s="39">
+      <c r="D69" s="39">
         <v>491056</v>
       </c>
-      <c r="E56" s="38">
-        <v>100</v>
-      </c>
-      <c r="F56" s="39">
+      <c r="E69" s="38">
+        <v>100</v>
+      </c>
+      <c r="F69" s="39">
         <v>150</v>
       </c>
-      <c r="G56" s="39"/>
-      <c r="H56" s="39"/>
-      <c r="I56" s="39"/>
-      <c r="J56" s="39"/>
-      <c r="O56" s="39"/>
+      <c r="G69" s="39"/>
+      <c r="H69" s="39"/>
+      <c r="I69" s="39"/>
+      <c r="J69" s="39"/>
+      <c r="O69" s="39"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
